--- a/Report/ArduScope Component.xlsx
+++ b/Report/ArduScope Component.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ArduScope\ArduScope\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5E75C3-5623-406F-94B2-776B5FA5664D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CA124-837A-46F0-8765-9DE284DAF97A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,13 +621,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +849,7 @@
   <dimension ref="A1:Y983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -949,7 +949,7 @@
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -976,11 +976,11 @@
       <c r="H3" s="5"/>
       <c r="I3" s="7">
         <f t="shared" ref="I3:J3" si="3">SUM(F:F,F1)</f>
-        <v>942.5</v>
+        <v>945.5</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" si="3"/>
-        <v>18.850000000000005</v>
+        <v>18.910000000000004</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1365,15 +1365,15 @@
         <v>0.03</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -27678,10 +27678,10 @@
       <c r="E1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
